--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId3"/>
+    <sheet name="master_reward_base" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="13">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="13">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -51,6 +51,87 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40002</t>
   </si>
 </sst>
 </file>
@@ -95,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -115,6 +196,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -132,6 +216,9 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -149,6 +236,9 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -166,7 +256,330 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">gacha</t>
   </si>
   <si>
+    <t xml:space="preserve">experience</t>
+  </si>
+  <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>
   <si>
@@ -51,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experience</t>
   </si>
   <si>
     <t xml:space="preserve">10004</t>
@@ -196,70 +196,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -270,16 +270,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -287,19 +287,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -307,19 +307,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -330,16 +330,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -347,19 +347,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -367,19 +367,19 @@
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -387,19 +387,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -407,13 +407,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>30</v>
@@ -430,16 +430,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -447,19 +447,19 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -470,16 +470,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -487,13 +487,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>28</v>
@@ -510,16 +510,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -527,19 +527,19 @@
         <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -547,7 +547,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>27</v>
@@ -556,7 +556,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -567,7 +567,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>27</v>
@@ -576,10 +576,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -113,25 +113,25 @@
     <t xml:space="preserve">20004</t>
   </si>
   <si>
-    <t xml:space="preserve">30001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30002</t>
+    <t xml:space="preserve">20005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20006</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">30003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40002</t>
+    <t xml:space="preserve">20007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20010</t>
   </si>
 </sst>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="55">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -132,6 +132,51 @@
   </si>
   <si>
     <t xml:space="preserve">20010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40002</t>
   </si>
 </sst>
 </file>
@@ -207,7 +252,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
@@ -253,7 +298,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
@@ -267,7 +312,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
@@ -313,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
@@ -327,7 +372,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>8</v>
@@ -373,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
@@ -387,16 +432,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>9</v>
@@ -407,7 +452,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>8</v>
@@ -416,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>27</v>
@@ -427,7 +472,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>8</v>
@@ -436,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>9</v>
@@ -447,7 +492,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>8</v>
@@ -456,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>11</v>
@@ -464,19 +509,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>9</v>
@@ -484,7 +529,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>8</v>
@@ -493,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -504,16 +549,16 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
@@ -524,7 +569,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>8</v>
@@ -533,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>9</v>
@@ -544,7 +589,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>8</v>
@@ -553,10 +598,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -564,19 +609,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>13</v>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="40">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="55">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="55">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="55">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
